--- a/biology/Botanique/Borassus/Borassus.xlsx
+++ b/biology/Botanique/Borassus/Borassus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rônier ou borasse, Borassus, est un genre de palmiers qui comprend neuf espèces natives des régions tropicales d'Afrique sahélienne, le Burkina Faso, l'Éthiopie, le Mali, le Niger, le Nigeria, le Togo, le Sénégal..., au sud jusqu'à la savane guinéenne de Côte d'Ivoire (station écologique de Lamto); répandu également en Asie et jusqu'en Nouvelle-Guinée.
 </t>
@@ -511,16 +523,88 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ce sont des palmiers de grande taille, qui développent un stipe lisse et gris pouvant atteindre 30 mètres de hauteur. Ils peuvent posséder plusieurs troncs. Les feuilles sont longues, en éventail, flabelliformes et peuvent mesurer jusqu'à deux ou trois mètres de longueur. Le pétiole est épineux. Les inflorescences mâles mesurent près de deux mètres, et comprennent des fleurs composées de 3 sépales, 3 pétales et 6 étamines et des pistils courts. Les fruits sont regroupés en grappes serrées. Ils sont ovoïdes ou globuleux, lisses de couleur jaune marron, orange ou même vert à maturité.
-Classification
-Sous-famille des Coryphoideae
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des palmiers de grande taille, qui développent un stipe lisse et gris pouvant atteindre 30 mètres de hauteur. Ils peuvent posséder plusieurs troncs. Les feuilles sont longues, en éventail, flabelliformes et peuvent mesurer jusqu'à deux ou trois mètres de longueur. Le pétiole est épineux. Les inflorescences mâles mesurent près de deux mètres, et comprennent des fleurs composées de 3 sépales, 3 pétales et 6 étamines et des pistils courts. Les fruits sont regroupés en grappes serrées. Ils sont ovoïdes ou globuleux, lisses de couleur jaune marron, orange ou même vert à maturité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Borassus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Borassus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-famille des Coryphoideae
 Tribu des Borasseae
 Sous-tribu des Lataniinae
 Sa sous-tribu comprend trois autres genres : Latania, Borassodendron, Lodoicea.
-Espèces
-Borassus aethiopum - Afrique tropicale
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Borassus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Borassus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Borassus aethiopum - Afrique tropicale
 Borassus akeassii Bayton, Ouedraogo &amp; Guinko - Afrique de l'Ouest
 Borassus deleb, Becc. Soudan.
 Borassus dichotomus, White Indes orientales, Asie du Sud-est.
@@ -533,31 +617,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Borassus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Borassus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Culture et usage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les palmiers Borassus sont économiquement très utiles et très cultivés dans les régions tropicales.
 Ils sont très répandus en Inde, où ils sont, comme en Afrique, utilisés de plus de 800 manières différentes. Les feuilles servent à faire des paniers, des chapeaux, des parapluies et du papier. Les racines, les feuilles et les pétioles, fournissent des fibres végétales solides, utilisées pour faire des barrières, des nasses, des nattes, des cordages, des brosses, des balais et des meubles. Le bois est noir, dur, solide et durable, ce qui lui donne une grande valeur dans la construction.
@@ -566,31 +652,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Borassus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Borassus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Espèces menacées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux espèces de Borassus sont menacées. Selon la Liste rouge de l'UICN, le Borassus madagascariensis est classé comme Vulnérable (A1c) et le Borassus sambiranensis est classé comme en Danger (A1c).
 </t>
